--- a/po_analysis_by_asin/B09VKFM255_po_data.xlsx
+++ b/po_analysis_by_asin/B09VKFM255_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,17 +452,225 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45355</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45362</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B3" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B29" t="n">
         <v>16</v>
       </c>
     </row>
@@ -477,7 +685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,9 +707,81 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44985.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45016.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B11" t="n">
         <v>34</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09VKFM255_po_data.xlsx
+++ b/po_analysis_by_asin/B09VKFM255_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +583,7 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -591,7 +591,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -599,79 +599,55 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45165.99999999999</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45172.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45193.99999999999</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45200.99999999999</v>
-      </c>
-      <c r="B27" t="n">
         <v>18</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45361.99999999999</v>
-      </c>
-      <c r="B28" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45368.99999999999</v>
-      </c>
-      <c r="B29" t="n">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -685,7 +661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,7 +734,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -775,14 +751,6 @@
       </c>
       <c r="B10" t="n">
         <v>54</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45382.99999999999</v>
-      </c>
-      <c r="B11" t="n">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09VKFM255_po_data.xlsx
+++ b/po_analysis_by_asin/B09VKFM255_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -677,7 +678,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -751,6 +752,509 @@
       </c>
       <c r="B10" t="n">
         <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.02334687334229298</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.14339148652448</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8506102939307333</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.57115065992996</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.228005154226867</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.47387447248423</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.575907928045903</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.13294805180795</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.633744029829142</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.32364241973748</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>12</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3774811764036823</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.87832089809059</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.996007286820381</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22.24384166000689</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8673032855542968</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.39083455644161</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.644801668159787</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22.35158111629039</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.293646032627447</v>
+      </c>
+      <c r="D11" t="n">
+        <v>22.1889627684166</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.869672526916099</v>
+      </c>
+      <c r="D12" t="n">
+        <v>22.29930586663795</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.56359993027601</v>
+      </c>
+      <c r="D13" t="n">
+        <v>22.89169399907818</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.185053547520376</v>
+      </c>
+      <c r="D14" t="n">
+        <v>22.32120770124208</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.895520675787333</v>
+      </c>
+      <c r="D15" t="n">
+        <v>23.29415696614171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.9028486899069</v>
+      </c>
+      <c r="D16" t="n">
+        <v>23.2112499413412</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.261560495392179</v>
+      </c>
+      <c r="D17" t="n">
+        <v>24.11133054583862</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.816946863620842</v>
+      </c>
+      <c r="D18" t="n">
+        <v>23.0077209854293</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>13</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.089647469387242</v>
+      </c>
+      <c r="D19" t="n">
+        <v>23.34940874707245</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>13</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.804922551601836</v>
+      </c>
+      <c r="D20" t="n">
+        <v>22.63479169913035</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>14</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.58696414867147</v>
+      </c>
+      <c r="D21" t="n">
+        <v>23.25726964897562</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>14</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.813776293098318</v>
+      </c>
+      <c r="D22" t="n">
+        <v>24.5973668521694</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>14</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.207495131605745</v>
+      </c>
+      <c r="D23" t="n">
+        <v>24.51966407072264</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>14</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.353944059862345</v>
+      </c>
+      <c r="D24" t="n">
+        <v>24.3421583033907</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>14</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.170992108519796</v>
+      </c>
+      <c r="D25" t="n">
+        <v>24.74805177504551</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>14</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.644400943768333</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24.77093058156694</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>15</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.814516820498381</v>
+      </c>
+      <c r="D27" t="n">
+        <v>24.82080281279284</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>15</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.381618715593109</v>
+      </c>
+      <c r="D28" t="n">
+        <v>25.0512717297256</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>15</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.760034165749527</v>
+      </c>
+      <c r="D29" t="n">
+        <v>23.96401285890631</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>15</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.854169668957112</v>
+      </c>
+      <c r="D30" t="n">
+        <v>24.58242465072745</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>15</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.385029413815691</v>
+      </c>
+      <c r="D31" t="n">
+        <v>25.16360358767011</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>15</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5.095640454923153</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25.69291376582676</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>15</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.323423001167821</v>
+      </c>
+      <c r="D33" t="n">
+        <v>26.2799465896371</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>15</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4.775076802880976</v>
+      </c>
+      <c r="D34" t="n">
+        <v>25.21724367851822</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09VKFM255_po_data.xlsx
+++ b/po_analysis_by_asin/B09VKFM255_po_data.xlsx
@@ -765,7 +765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,16 +784,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -802,12 +792,6 @@
       <c r="B2" t="n">
         <v>11</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.02334687334229298</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.14339148652448</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -816,12 +800,6 @@
       <c r="B3" t="n">
         <v>11</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.8506102939307333</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.57115065992996</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -830,12 +808,6 @@
       <c r="B4" t="n">
         <v>11</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.228005154226867</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.47387447248423</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -844,12 +816,6 @@
       <c r="B5" t="n">
         <v>11</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.575907928045903</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.13294805180795</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -858,12 +824,6 @@
       <c r="B6" t="n">
         <v>11</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.633744029829142</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.32364241973748</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -872,12 +832,6 @@
       <c r="B7" t="n">
         <v>12</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.3774811764036823</v>
-      </c>
-      <c r="D7" t="n">
-        <v>21.87832089809059</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -886,12 +840,6 @@
       <c r="B8" t="n">
         <v>12</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.996007286820381</v>
-      </c>
-      <c r="D8" t="n">
-        <v>22.24384166000689</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -900,12 +848,6 @@
       <c r="B9" t="n">
         <v>12</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.8673032855542968</v>
-      </c>
-      <c r="D9" t="n">
-        <v>22.39083455644161</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -914,12 +856,6 @@
       <c r="B10" t="n">
         <v>12</v>
       </c>
-      <c r="C10" t="n">
-        <v>1.644801668159787</v>
-      </c>
-      <c r="D10" t="n">
-        <v>22.35158111629039</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -928,12 +864,6 @@
       <c r="B11" t="n">
         <v>12</v>
       </c>
-      <c r="C11" t="n">
-        <v>2.293646032627447</v>
-      </c>
-      <c r="D11" t="n">
-        <v>22.1889627684166</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -942,12 +872,6 @@
       <c r="B12" t="n">
         <v>13</v>
       </c>
-      <c r="C12" t="n">
-        <v>2.869672526916099</v>
-      </c>
-      <c r="D12" t="n">
-        <v>22.29930586663795</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -956,12 +880,6 @@
       <c r="B13" t="n">
         <v>13</v>
       </c>
-      <c r="C13" t="n">
-        <v>2.56359993027601</v>
-      </c>
-      <c r="D13" t="n">
-        <v>22.89169399907818</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -970,12 +888,6 @@
       <c r="B14" t="n">
         <v>13</v>
       </c>
-      <c r="C14" t="n">
-        <v>3.185053547520376</v>
-      </c>
-      <c r="D14" t="n">
-        <v>22.32120770124208</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -984,12 +896,6 @@
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="n">
-        <v>2.895520675787333</v>
-      </c>
-      <c r="D15" t="n">
-        <v>23.29415696614171</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -998,12 +904,6 @@
       <c r="B16" t="n">
         <v>13</v>
       </c>
-      <c r="C16" t="n">
-        <v>1.9028486899069</v>
-      </c>
-      <c r="D16" t="n">
-        <v>23.2112499413412</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1012,12 +912,6 @@
       <c r="B17" t="n">
         <v>13</v>
       </c>
-      <c r="C17" t="n">
-        <v>3.261560495392179</v>
-      </c>
-      <c r="D17" t="n">
-        <v>24.11133054583862</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1026,12 +920,6 @@
       <c r="B18" t="n">
         <v>13</v>
       </c>
-      <c r="C18" t="n">
-        <v>2.816946863620842</v>
-      </c>
-      <c r="D18" t="n">
-        <v>23.0077209854293</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1040,12 +928,6 @@
       <c r="B19" t="n">
         <v>13</v>
       </c>
-      <c r="C19" t="n">
-        <v>4.089647469387242</v>
-      </c>
-      <c r="D19" t="n">
-        <v>23.34940874707245</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1054,12 +936,6 @@
       <c r="B20" t="n">
         <v>13</v>
       </c>
-      <c r="C20" t="n">
-        <v>2.804922551601836</v>
-      </c>
-      <c r="D20" t="n">
-        <v>22.63479169913035</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1068,12 +944,6 @@
       <c r="B21" t="n">
         <v>14</v>
       </c>
-      <c r="C21" t="n">
-        <v>3.58696414867147</v>
-      </c>
-      <c r="D21" t="n">
-        <v>23.25726964897562</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1082,12 +952,6 @@
       <c r="B22" t="n">
         <v>14</v>
       </c>
-      <c r="C22" t="n">
-        <v>3.813776293098318</v>
-      </c>
-      <c r="D22" t="n">
-        <v>24.5973668521694</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1096,12 +960,6 @@
       <c r="B23" t="n">
         <v>14</v>
       </c>
-      <c r="C23" t="n">
-        <v>4.207495131605745</v>
-      </c>
-      <c r="D23" t="n">
-        <v>24.51966407072264</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1110,12 +968,6 @@
       <c r="B24" t="n">
         <v>14</v>
       </c>
-      <c r="C24" t="n">
-        <v>4.353944059862345</v>
-      </c>
-      <c r="D24" t="n">
-        <v>24.3421583033907</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1124,12 +976,6 @@
       <c r="B25" t="n">
         <v>14</v>
       </c>
-      <c r="C25" t="n">
-        <v>4.170992108519796</v>
-      </c>
-      <c r="D25" t="n">
-        <v>24.74805177504551</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1138,12 +984,6 @@
       <c r="B26" t="n">
         <v>14</v>
       </c>
-      <c r="C26" t="n">
-        <v>4.644400943768333</v>
-      </c>
-      <c r="D26" t="n">
-        <v>24.77093058156694</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1152,12 +992,6 @@
       <c r="B27" t="n">
         <v>15</v>
       </c>
-      <c r="C27" t="n">
-        <v>3.814516820498381</v>
-      </c>
-      <c r="D27" t="n">
-        <v>24.82080281279284</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1166,12 +1000,6 @@
       <c r="B28" t="n">
         <v>15</v>
       </c>
-      <c r="C28" t="n">
-        <v>4.381618715593109</v>
-      </c>
-      <c r="D28" t="n">
-        <v>25.0512717297256</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1180,12 +1008,6 @@
       <c r="B29" t="n">
         <v>15</v>
       </c>
-      <c r="C29" t="n">
-        <v>4.760034165749527</v>
-      </c>
-      <c r="D29" t="n">
-        <v>23.96401285890631</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1194,12 +1016,6 @@
       <c r="B30" t="n">
         <v>15</v>
       </c>
-      <c r="C30" t="n">
-        <v>4.854169668957112</v>
-      </c>
-      <c r="D30" t="n">
-        <v>24.58242465072745</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1208,12 +1024,6 @@
       <c r="B31" t="n">
         <v>15</v>
       </c>
-      <c r="C31" t="n">
-        <v>4.385029413815691</v>
-      </c>
-      <c r="D31" t="n">
-        <v>25.16360358767011</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1222,12 +1032,6 @@
       <c r="B32" t="n">
         <v>15</v>
       </c>
-      <c r="C32" t="n">
-        <v>5.095640454923153</v>
-      </c>
-      <c r="D32" t="n">
-        <v>25.69291376582676</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1236,12 +1040,6 @@
       <c r="B33" t="n">
         <v>15</v>
       </c>
-      <c r="C33" t="n">
-        <v>4.323423001167821</v>
-      </c>
-      <c r="D33" t="n">
-        <v>26.2799465896371</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1249,12 +1047,6 @@
       </c>
       <c r="B34" t="n">
         <v>15</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4.775076802880976</v>
-      </c>
-      <c r="D34" t="n">
-        <v>25.21724367851822</v>
       </c>
     </row>
   </sheetData>
